--- a/icms.xlsx
+++ b/icms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlsilva\Documents\PYTHON PROJETOS\python_fiscal\Darj_selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlsilva\Documents\PYTHON PROJETOS\python_fiscal\Darj-Gnre_selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B2FD81-3397-473B-9BE9-0E114CD5015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC38A403-CB84-423E-A835-1650C7AED37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ICMS MARÇO 2024" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="306">
   <si>
     <t>LOJAS</t>
   </si>
@@ -949,6 +949,12 @@
   </si>
   <si>
     <t>Refeitório Fil 44  - 254-2</t>
+  </si>
+  <si>
+    <t>3247</t>
+  </si>
+  <si>
+    <t>3018</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1205,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1208,7 +1214,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,6 +1264,8 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1544,7 +1551,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,37 +1581,37 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4">
-        <v>775.41000000000008</v>
-      </c>
-      <c r="C2" s="4">
-        <v>258.46999999999997</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1033.8800000000001</v>
+      <c r="A2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1301.43</v>
+      </c>
+      <c r="C2" s="22">
+        <v>277.98</v>
+      </c>
+      <c r="D2" s="23">
+        <v>1579.41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44.512</v>
-      </c>
-      <c r="C3" s="4">
-        <v>11.128</v>
-      </c>
-      <c r="D3" s="4">
-        <v>55.64</v>
+      <c r="A3" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1063.6199999999999</v>
+      </c>
+      <c r="C3" s="22">
+        <v>170.44</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1234.06</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1640,7 +1647,7 @@
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1660,7 +1667,7 @@
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1680,7 +1687,7 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1700,7 +1707,7 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1720,7 +1727,7 @@
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1740,7 +1747,7 @@
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1760,7 +1767,7 @@
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1780,7 +1787,7 @@
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1800,7 +1807,7 @@
       <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1820,7 +1827,7 @@
       <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1840,7 +1847,7 @@
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1860,7 +1867,7 @@
       <c r="C12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1880,7 +1887,7 @@
       <c r="C13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1900,7 +1907,7 @@
       <c r="C14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1920,7 +1927,7 @@
       <c r="C15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1940,7 +1947,7 @@
       <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1960,7 +1967,7 @@
       <c r="C17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1980,7 +1987,7 @@
       <c r="C18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -2000,13 +2007,13 @@
       <c r="C19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2020,7 +2027,7 @@
       <c r="C20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -2040,7 +2047,7 @@
       <c r="C21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2060,7 +2067,7 @@
       <c r="C22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -2080,7 +2087,7 @@
       <c r="C23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>140</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -2100,7 +2107,7 @@
       <c r="C24" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>146</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -2120,7 +2127,7 @@
       <c r="C25" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -2140,7 +2147,7 @@
       <c r="C26" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -2160,13 +2167,13 @@
       <c r="C27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2177,16 +2184,16 @@
       <c r="B28" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2200,7 +2207,7 @@
       <c r="C29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -2220,7 +2227,7 @@
       <c r="C30" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -2240,13 +2247,13 @@
       <c r="C31" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2260,13 +2267,13 @@
       <c r="C32" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2280,13 +2287,13 @@
       <c r="C33" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2300,13 +2307,13 @@
       <c r="C34" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2317,16 +2324,16 @@
       <c r="B35" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>214</v>
       </c>
     </row>
@@ -2337,16 +2344,16 @@
       <c r="B36" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2360,13 +2367,13 @@
       <c r="C37" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2380,13 +2387,13 @@
       <c r="C38" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2394,50 +2401,50 @@
       <c r="A39" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>247</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2451,16 +2458,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>254</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -2471,13 +2478,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>259</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2491,13 +2498,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>265</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2511,13 +2518,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>271</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2531,13 +2538,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>277</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2551,13 +2558,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>283</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2571,13 +2578,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>288</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2591,13 +2598,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>294</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -2611,40 +2618,40 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="9" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/icms.xlsx
+++ b/icms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlsilva\Documents\PYTHON PROJETOS\python_fiscal\Darj-Gnre_selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC38A403-CB84-423E-A835-1650C7AED37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E330F27A-CEAD-4E37-B946-B2F5B6BD2325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ICMS MARÇO 2024" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="302">
   <si>
     <t>LOJAS</t>
   </si>
@@ -87,9 +87,6 @@
     <t>81546142</t>
   </si>
   <si>
-    <t>PIZZ.F08 - 1008-1</t>
-  </si>
-  <si>
     <t>33381286004491</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>81376816</t>
   </si>
   <si>
-    <t>PIZZ.F10 - 1010-3</t>
-  </si>
-  <si>
     <t>33381286004149</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>80760531</t>
   </si>
   <si>
-    <t>PIZZ.F12 - 1012-0</t>
-  </si>
-  <si>
     <t>33381286005200</t>
   </si>
   <si>
@@ -174,9 +165,6 @@
     <t>83735201</t>
   </si>
   <si>
-    <t>PIZZ.F14 - 1014-6</t>
-  </si>
-  <si>
     <t>33381286005110</t>
   </si>
   <si>
@@ -192,9 +180,6 @@
     <t>81527156</t>
   </si>
   <si>
-    <t>PIZZ.F16 - 1016-2</t>
-  </si>
-  <si>
     <t>33381286005030</t>
   </si>
   <si>
@@ -210,9 +195,6 @@
     <t>81527199</t>
   </si>
   <si>
-    <t>PIZZ.F17 - 1017-0</t>
-  </si>
-  <si>
     <t>33381286005544</t>
   </si>
   <si>
@@ -243,9 +225,6 @@
     <t>85959611</t>
   </si>
   <si>
-    <t>PIZZ.F20 - 1020-0</t>
-  </si>
-  <si>
     <t>33381286005625</t>
   </si>
   <si>
@@ -261,9 +240,6 @@
     <t>85959581</t>
   </si>
   <si>
-    <t>PIZZ.F22 - 1022-7</t>
-  </si>
-  <si>
     <t>33381286005706</t>
   </si>
   <si>
@@ -279,9 +255,6 @@
     <t>85960199</t>
   </si>
   <si>
-    <t>PIZZ.F23 - 1023-5</t>
-  </si>
-  <si>
     <t>33381286005897</t>
   </si>
   <si>
@@ -297,9 +270,6 @@
     <t>77011293</t>
   </si>
   <si>
-    <t>PIZZ.F25 - 1025-1</t>
-  </si>
-  <si>
     <t>33381286005978</t>
   </si>
   <si>
@@ -387,9 +357,6 @@
     <t>77012818</t>
   </si>
   <si>
-    <t>PIZZ.F32 - 1032-4</t>
-  </si>
-  <si>
     <t>33381286008136</t>
   </si>
   <si>
@@ -423,9 +390,6 @@
     <t>76160309</t>
   </si>
   <si>
-    <t>PIZZ.F34 - 1034-0</t>
-  </si>
-  <si>
     <t>33381286008489</t>
   </si>
   <si>
@@ -441,9 +405,6 @@
     <t>77056548</t>
   </si>
   <si>
-    <t>PIZZ.F35 - 1035-9</t>
-  </si>
-  <si>
     <t>33381286004815</t>
   </si>
   <si>
@@ -477,9 +438,6 @@
     <t>77659528</t>
   </si>
   <si>
-    <t>PIZZ.F37 - 1037-5</t>
-  </si>
-  <si>
     <t>33381286006788</t>
   </si>
   <si>
@@ -495,9 +453,6 @@
     <t>77750525</t>
   </si>
   <si>
-    <t>PIZZ.F38 - 1038-3</t>
-  </si>
-  <si>
     <t>33381286006605</t>
   </si>
   <si>
@@ -531,9 +486,6 @@
     <t>77750517</t>
   </si>
   <si>
-    <t>PIZZ. F40 -1040-5</t>
-  </si>
-  <si>
     <t>33381286008306</t>
   </si>
   <si>
@@ -549,9 +501,6 @@
     <t>77750533</t>
   </si>
   <si>
-    <t>PIZZ. F41 -1041-3</t>
-  </si>
-  <si>
     <t>33381286008993</t>
   </si>
   <si>
@@ -585,9 +534,6 @@
     <t>78257202</t>
   </si>
   <si>
-    <t>PIZZ. F43 -1043-0</t>
-  </si>
-  <si>
     <t>33381286008217</t>
   </si>
   <si>
@@ -603,9 +549,6 @@
     <t>78164239</t>
   </si>
   <si>
-    <t>PIZZ. F44 -1044-8</t>
-  </si>
-  <si>
     <t>33381286007911</t>
   </si>
   <si>
@@ -621,9 +564,6 @@
     <t>77567135</t>
   </si>
   <si>
-    <t>PIZZ. F45 -1045-6</t>
-  </si>
-  <si>
     <t>33381286008802</t>
   </si>
   <si>
@@ -657,9 +597,6 @@
     <t>79524034</t>
   </si>
   <si>
-    <t>PIZZ. F48 -1048-0</t>
-  </si>
-  <si>
     <t>33381286009108</t>
   </si>
   <si>
@@ -729,9 +666,6 @@
     <t>87186377</t>
   </si>
   <si>
-    <t>MATRIZ - 301-8</t>
-  </si>
-  <si>
     <t>33381286000151</t>
   </si>
   <si>
@@ -933,9 +867,6 @@
     <t>86609398</t>
   </si>
   <si>
-    <t>Refeitório Fil 42  - 252-6</t>
-  </si>
-  <si>
     <t>Posto 45 - 267-4</t>
   </si>
   <si>
@@ -945,16 +876,73 @@
     <t>12844972</t>
   </si>
   <si>
-    <t>Refeitório Fil 43  - 253-4</t>
-  </si>
-  <si>
-    <t>Refeitório Fil 44  - 254-2</t>
-  </si>
-  <si>
-    <t>3247</t>
-  </si>
-  <si>
-    <t>3018</t>
+    <t>PIZZARIA 08</t>
+  </si>
+  <si>
+    <t>PIZZARIA 10</t>
+  </si>
+  <si>
+    <t>PIZZARIA 12</t>
+  </si>
+  <si>
+    <t>PIZZARIA 14</t>
+  </si>
+  <si>
+    <t>PIZZARIA 16</t>
+  </si>
+  <si>
+    <t>PIZZARIA  17</t>
+  </si>
+  <si>
+    <t>PIZZARIA 20</t>
+  </si>
+  <si>
+    <t>PIZZARIA  22</t>
+  </si>
+  <si>
+    <t>PIZZARIA  23</t>
+  </si>
+  <si>
+    <t>PIZZARIA  25</t>
+  </si>
+  <si>
+    <t>PIZZARIA  34</t>
+  </si>
+  <si>
+    <t>PIZZARIA 35</t>
+  </si>
+  <si>
+    <t>PIZZARIA 37</t>
+  </si>
+  <si>
+    <t>PIZZARIA 38</t>
+  </si>
+  <si>
+    <t>PIZZARIA 40</t>
+  </si>
+  <si>
+    <t>PIZZARIA 41</t>
+  </si>
+  <si>
+    <t>PIZZARIA 43</t>
+  </si>
+  <si>
+    <t>PIZZARIA 44</t>
+  </si>
+  <si>
+    <t>PIZZARIA 45</t>
+  </si>
+  <si>
+    <t>PIZZARIA 48</t>
+  </si>
+  <si>
+    <t>301-8</t>
+  </si>
+  <si>
+    <t>324-7</t>
+  </si>
+  <si>
+    <t>PIZZARIA  32</t>
   </si>
 </sst>
 </file>
@@ -964,7 +952,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1004,6 +992,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1034,7 +1035,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1083,92 +1084,11 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1182,93 +1102,67 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{A8FC921D-7DFA-40FB-92F6-AAA687BD3124}"/>
     <cellStyle name="Saída" xfId="2" builtinId="21"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -1548,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1454,7 @@
     <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1581,1077 +1475,2301 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="23">
-        <v>1301.43</v>
-      </c>
-      <c r="C2" s="22">
-        <v>277.98</v>
-      </c>
-      <c r="D2" s="23">
-        <v>1579.41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>231</v>
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15">
+        <v>88239.600499999986</v>
+      </c>
+      <c r="C2" s="16">
+        <v>7391.4654999999993</v>
+      </c>
+      <c r="D2" s="15">
+        <v>95631.065999999992</v>
+      </c>
+      <c r="E2" s="14" t="str">
+        <f>VLOOKUP(A2,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286000747</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" s="23">
-        <v>1063.6199999999999</v>
-      </c>
-      <c r="C3" s="22">
-        <v>170.44</v>
-      </c>
-      <c r="D3" s="23">
-        <v>1234.06</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>231</v>
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>57400.1495</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3989.4774999999995</v>
+      </c>
+      <c r="D3" s="1">
+        <v>61389.627</v>
+      </c>
+      <c r="E3" s="14" t="str">
+        <f>VLOOKUP(A3,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286000828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>65210.897499999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5112.8334999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>70323.731</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f>VLOOKUP(A4,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286001123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30646.515500000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2564.4964999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>33211.012000000002</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f>VLOOKUP(A5,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286001557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1">
+        <v>92319.897999999986</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7197.4470000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>99517.344999999987</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f>VLOOKUP(A6,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286001395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <v>235361.60699999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>17576.282499999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>252937.88949999999</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f>VLOOKUP(A7,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286001980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>183696.01850000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16356.073999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>200052.0925</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f>VLOOKUP(A8,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286002103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1">
+        <v>95776.625</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7652.326</v>
+      </c>
+      <c r="D9" s="1">
+        <v>103428.951</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f>VLOOKUP(A9,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286002286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1">
+        <v>243644.84700000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>17056.955499999996</v>
+      </c>
+      <c r="D10" s="1">
+        <v>260701.80249999999</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f>VLOOKUP(A10,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286002448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1">
+        <v>136670.59099999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11222.2075</v>
+      </c>
+      <c r="D11" s="1">
+        <v>147892.79849999998</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f>VLOOKUP(A11,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286902279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="1">
+        <v>126207.2055</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9432.4740000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>135639.6795</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f>VLOOKUP(A12,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286902198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1">
+        <v>90971.069000000003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7767.3804999999993</v>
+      </c>
+      <c r="D13" s="1">
+        <v>98738.449500000002</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f>VLOOKUP(A13,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286902350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="1">
+        <v>124102.52800000001</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8255.4524999999994</v>
+      </c>
+      <c r="D14" s="1">
+        <v>132357.98050000001</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f>VLOOKUP(A14,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286902783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44668.629499999995</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3618.7589999999996</v>
+      </c>
+      <c r="D15" s="1">
+        <v>48287.388499999994</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f>VLOOKUP(A15,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286902511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1">
+        <v>135195.27900000001</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10532.213</v>
+      </c>
+      <c r="D16" s="1">
+        <v>145727.492</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f>VLOOKUP(A16,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286903089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1">
+        <v>66033.122499999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4622.1489999999994</v>
+      </c>
+      <c r="D17" s="1">
+        <v>70655.271500000003</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f>VLOOKUP(A17,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286902864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="1">
+        <v>205312.10949999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16113.196999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>221425.30649999998</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f>VLOOKUP(A18,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286902600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="1">
+        <v>126471.66650000001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9040.9789999999994</v>
+      </c>
+      <c r="D19" s="1">
+        <v>135512.64550000001</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f>VLOOKUP(A19,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286000232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="1">
+        <v>72719.222500000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5863.4094999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>78582.631999999998</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f>VLOOKUP(A20,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286000313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="1">
+        <v>88297.769</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7249.6115</v>
+      </c>
+      <c r="D21" s="1">
+        <v>95547.380499999999</v>
+      </c>
+      <c r="E21" s="14" t="str">
+        <f>VLOOKUP(A21,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286903160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="1">
+        <v>151472.14199999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>11808.955999999998</v>
+      </c>
+      <c r="D22" s="1">
+        <v>163281.098</v>
+      </c>
+      <c r="E22" s="14" t="str">
+        <f>VLOOKUP(A22,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286002790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="1">
+        <v>93833.656499999997</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7097.2789999999995</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100930.93549999999</v>
+      </c>
+      <c r="E23" s="14" t="str">
+        <f>VLOOKUP(A23,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286002871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="1">
+        <v>79918.578999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6769.9375</v>
+      </c>
+      <c r="D24" s="1">
+        <v>86688.516499999998</v>
+      </c>
+      <c r="E24" s="14" t="str">
+        <f>VLOOKUP(A24,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286002952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1">
+        <v>34885.567499999997</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2648.5430000000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>37534.110499999995</v>
+      </c>
+      <c r="E25" s="14" t="str">
+        <f>VLOOKUP(A25,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286003096</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="1">
+        <v>30523.452499999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2636.2595000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>33159.712</v>
+      </c>
+      <c r="E26" s="14" t="str">
+        <f>VLOOKUP(A26,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286003177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" s="1">
+        <v>66518.543999999994</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5321.2539999999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>71839.797999999995</v>
+      </c>
+      <c r="E27" s="14" t="str">
+        <f>VLOOKUP(A27,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286003258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="1">
+        <v>70150.441500000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5657.8674999999994</v>
+      </c>
+      <c r="D28" s="1">
+        <v>75808.308999999994</v>
+      </c>
+      <c r="E28" s="14" t="str">
+        <f>VLOOKUP(A28,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286003410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="1">
+        <v>106169.9575</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8847.2644999999993</v>
+      </c>
+      <c r="D29" s="1">
+        <v>115017.22200000001</v>
+      </c>
+      <c r="E29" s="14" t="str">
+        <f>VLOOKUP(A29,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286003509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="1">
+        <v>72249.399999999994</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5411.3424999999997</v>
+      </c>
+      <c r="D30" s="1">
+        <v>77660.742499999993</v>
+      </c>
+      <c r="E30" s="14" t="str">
+        <f>VLOOKUP(A30,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286003681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="1">
+        <v>81951.845000000001</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6307.6959999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>88259.540999999997</v>
+      </c>
+      <c r="E31" s="14" t="str">
+        <f>VLOOKUP(A31,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286000402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="1">
+        <v>338498.21449999994</v>
+      </c>
+      <c r="C32" s="1">
+        <v>27079.075499999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>365577.28999999992</v>
+      </c>
+      <c r="E32" s="14" t="str">
+        <f>VLOOKUP(A32,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286004068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="1">
+        <v>101723.549</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8374.2309999999998</v>
+      </c>
+      <c r="D33" s="1">
+        <v>110097.78</v>
+      </c>
+      <c r="E33" s="14" t="str">
+        <f>VLOOKUP(A33,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286003924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="1">
+        <v>93019.040999999997</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7873.6094999999996</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100892.6505</v>
+      </c>
+      <c r="E34" s="14" t="str">
+        <f>VLOOKUP(A34,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286006273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42197.365999999995</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3714.386</v>
+      </c>
+      <c r="D35" s="1">
+        <v>45911.751999999993</v>
+      </c>
+      <c r="E35" s="14" t="str">
+        <f>VLOOKUP(A35,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286006354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="1">
+        <v>113213.39049999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8703.6434999999983</v>
+      </c>
+      <c r="D36" s="1">
+        <v>121917.03399999999</v>
+      </c>
+      <c r="E36" s="14" t="str">
+        <f>VLOOKUP(A36,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286006192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="1">
+        <v>180900.93799999999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>14677.3575</v>
+      </c>
+      <c r="D37" s="1">
+        <v>195578.29550000001</v>
+      </c>
+      <c r="E37" s="14" t="str">
+        <f>VLOOKUP(A37,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286007245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2029.9504999999999</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2029.9504999999999</v>
+      </c>
+      <c r="E38" s="14" t="str">
+        <f>VLOOKUP(A38,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286007407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" s="1">
+        <v>86634.689499999993</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6817.77</v>
+      </c>
+      <c r="D39" s="1">
+        <v>93452.459499999997</v>
+      </c>
+      <c r="E39" s="14" t="str">
+        <f>VLOOKUP(A39,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286007598</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="1">
+        <v>152285.209</v>
+      </c>
+      <c r="C40" s="1">
+        <v>11224.449499999999</v>
+      </c>
+      <c r="D40" s="1">
+        <v>163509.65849999999</v>
+      </c>
+      <c r="E40" s="14" t="str">
+        <f>VLOOKUP(A40,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286007679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" s="1">
+        <v>55018.936499999996</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4798.4690000000001</v>
+      </c>
+      <c r="D41" s="1">
+        <v>59817.405499999993</v>
+      </c>
+      <c r="E41" s="14" t="str">
+        <f>VLOOKUP(A41,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286007750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B42" s="1">
+        <v>233347.5025</v>
+      </c>
+      <c r="C42" s="1">
+        <v>18565.394</v>
+      </c>
+      <c r="D42" s="1">
+        <v>251912.8965</v>
+      </c>
+      <c r="E42" s="14" t="str">
+        <f>VLOOKUP(A42,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286007830</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="1">
+        <v>100822.47399999999</v>
+      </c>
+      <c r="C43" s="1">
+        <v>7411.71</v>
+      </c>
+      <c r="D43" s="1">
+        <v>108234.18399999999</v>
+      </c>
+      <c r="E43" s="14" t="str">
+        <f>VLOOKUP(A43,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286008640</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="B44" s="1">
+        <v>146883.16699999999</v>
+      </c>
+      <c r="C44" s="1">
+        <v>14908.7585</v>
+      </c>
+      <c r="D44" s="1">
+        <v>161791.92549999998</v>
+      </c>
+      <c r="E44" s="14" t="str">
+        <f>VLOOKUP(A44,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286002367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3799306.9465000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>516060.72899999993</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4315367.6754999999</v>
+      </c>
+      <c r="E45" s="14" t="str">
+        <f>VLOOKUP(A45,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286000151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" s="1">
+        <v>6917.8904999999995</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6917.8904999999995</v>
+      </c>
+      <c r="E46" s="14" t="str">
+        <f>VLOOKUP(A46,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286004491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="1">
+        <v>29582.790999999997</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>29582.790999999997</v>
+      </c>
+      <c r="E47" s="14" t="str">
+        <f>VLOOKUP(A47,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286004149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="1">
+        <v>7384.6634999999997</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>7384.6634999999997</v>
+      </c>
+      <c r="E48" s="14" t="str">
+        <f>VLOOKUP(A48,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286005200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9729.0924999999988</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9729.0924999999988</v>
+      </c>
+      <c r="E49" s="14" t="str">
+        <f>VLOOKUP(A49,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286005110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B50" s="1">
+        <v>18179.950499999999</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>18179.950499999999</v>
+      </c>
+      <c r="E50" s="14" t="str">
+        <f>VLOOKUP(A50,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286005030</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8458.5529999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>8458.5529999999999</v>
+      </c>
+      <c r="E51" s="14" t="str">
+        <f>VLOOKUP(A51,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286005544</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="1">
+        <v>9370.7999999999993</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9370.7999999999993</v>
+      </c>
+      <c r="E52" s="14" t="str">
+        <f>VLOOKUP(A52,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286005625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3836.2804999999998</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3836.2804999999998</v>
+      </c>
+      <c r="E53" s="14" t="str">
+        <f>VLOOKUP(A53,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286005706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="1">
+        <v>7176.1575000000003</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>7176.1575000000003</v>
+      </c>
+      <c r="E54" s="14" t="str">
+        <f>VLOOKUP(A54,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286005897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2965.6624999999999</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2965.6624999999999</v>
+      </c>
+      <c r="E55" s="14" t="str">
+        <f>VLOOKUP(A55,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286005978</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5465.0649999999996</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>5465.0649999999996</v>
+      </c>
+      <c r="E56" s="14" t="str">
+        <f>VLOOKUP(A56,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286008136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" s="1">
+        <v>25298.024999999998</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>25298.024999999998</v>
+      </c>
+      <c r="E57" s="14" t="str">
+        <f>VLOOKUP(A57,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286008489</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="1">
+        <v>11143.547499999999</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>11143.547499999999</v>
+      </c>
+      <c r="E58" s="14" t="str">
+        <f>VLOOKUP(A58,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286004815</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="1">
+        <v>740.88599999999997</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>740.88599999999997</v>
+      </c>
+      <c r="E59" s="14" t="str">
+        <f>VLOOKUP(A59,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286006788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="1">
+        <v>5231.8209999999999</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>5231.8209999999999</v>
+      </c>
+      <c r="E60" s="14" t="str">
+        <f>VLOOKUP(A60,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286006605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="1">
+        <v>21061.509499999996</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>21061.509499999996</v>
+      </c>
+      <c r="E61" s="14" t="str">
+        <f>VLOOKUP(A61,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286008306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2914.866</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2914.866</v>
+      </c>
+      <c r="E62" s="14" t="str">
+        <f>VLOOKUP(A62,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286008993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="1">
+        <v>8533.0424999999996</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8533.0424999999996</v>
+      </c>
+      <c r="E63" s="14" t="str">
+        <f>VLOOKUP(A63,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286008217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3064.491</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3064.491</v>
+      </c>
+      <c r="E64" s="14" t="str">
+        <f>VLOOKUP(A64,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286007911</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="1">
+        <v>21342.794999999998</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1">
+        <v>21342.794999999998</v>
+      </c>
+      <c r="E65" s="14" t="str">
+        <f>VLOOKUP(A65,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286008802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4282.9134999999997</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4282.9134999999997</v>
+      </c>
+      <c r="E66" s="14" t="str">
+        <f>VLOOKUP(A66,Planilha1!$A$1:$C$99,2,0)</f>
+        <v>33381286009108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B67" s="1">
+        <v>6033.5355</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1145.0445</v>
+      </c>
+      <c r="D67" s="1">
+        <v>7178.58</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAE396C-58E9-45AD-B1CC-7CED510B3B02}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B50" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C52" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C54" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B55" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C57" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="C58" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="B59" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C59" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C62" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C63" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="2" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B64" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C64" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="2" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B65" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C65" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="2" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B66" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C66" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="2" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C67" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="2" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="2" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="B69" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C69" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="5" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="4" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="C71" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="B72" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="C72" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="C73" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C74" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C75" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="2" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="2" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="B78" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="C78" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="5" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="6" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="C82" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B86" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C86" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B87" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C87" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="5" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B88" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C88" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="5" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B89" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C89" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F37" s="10" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B90" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C90" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F38" s="11" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B91" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" s="11" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="F40" s="12" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="B93" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F41" s="2" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="B94" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="2" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="B95" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F43" s="2" t="s">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="B96" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="C96" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="B97" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="C97" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E45" s="2" t="s">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="B98" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="C98" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B46" s="5" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="B99" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="C99" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/icms.xlsx
+++ b/icms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlsilva\Documents\PYTHON PROJETOS\python_fiscal\Darj-Gnre_selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E330F27A-CEAD-4E37-B946-B2F5B6BD2325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46D6E2E-4821-41A2-A87D-AB34A08F9864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1157,8 +1157,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
